--- a/medicine/Psychotrope/De_force_avec_d'autres/De_force_avec_d'autres.xlsx
+++ b/medicine/Psychotrope/De_force_avec_d'autres/De_force_avec_d'autres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>De_force_avec_d%27autres</t>
+          <t>De_force_avec_d'autres</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De force avec d'autres est un film documentaire français réalisé par Simon Reggiani, sorti en 1993.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>De_force_avec_d%27autres</t>
+          <t>De_force_avec_d'autres</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Simon Reggiani contraint son père Serge, souffrant d'une addiction à l'alcool, à se faire hospitaliser pour suivre, avec d'autres, une cure de désintoxication.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>De_force_avec_d%27autres</t>
+          <t>De_force_avec_d'autres</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : De force avec d'autres
 Réalisation : Simon Reggiani
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>De_force_avec_d%27autres</t>
+          <t>De_force_avec_d'autres</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Serge Reggiani
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>De_force_avec_d%27autres</t>
+          <t>De_force_avec_d'autres</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -628,10 +646,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompense
-1992 : Prix du public au Festival du film de Belfort - Entrevues
-Sélection
-1993 : Festival de Cannes (programmation ACID)</t>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1992 : Prix du public au Festival du film de Belfort - Entrevues</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>De_force_avec_d'autres</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/De_force_avec_d%27autres</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1993 : Festival de Cannes (programmation ACID)</t>
         </is>
       </c>
     </row>
